--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1089700.473126053</v>
+        <v>1066838.358788885</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7226289.925414165</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3187716.885615898</v>
+        <v>806345.8827095099</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10392167.78907094</v>
+        <v>11502486.99834478</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>219.6274528884873</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>18.43980341797993</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.4626705982188</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>283.8147119650129</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>154.6012305690999</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>221.1775627875398</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>42.55249764492844</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>84.4526210585756</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>229.7965692041376</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>112.9416910403794</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>229.7965692041376</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>112.2898785673255</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>157.858341933592</v>
+        <v>53.63261998865958</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.451579104186558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>19.37905693789747</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>48.12066034807928</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.2334741230747</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>132.5373350448695</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.59371373186885</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>42.01201317445329</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>122.4179473152588</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>146.9083821604489</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>113.0966634767435</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>234.0920169110386</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>37.59617708813248</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>150.6852479789301</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>19.49905836424222</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4152,10 +4152,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>221.5068578277292</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>176.7697821123584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1542.271337979254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1173.308821038843</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>815.0431224320921</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>429.2548698338479</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>429.2548698338479</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>429.2548698338479</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4345,37 +4345,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304456</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304456</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304456</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.336936304456</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="X2" t="n">
-        <v>1928.871178043376</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y2" t="n">
-        <v>1928.871178043376</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785277</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>559.1928012785277</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>559.1928012785277</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>412.3028537806173</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,7 +4497,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
         <v>529.6040388502502</v>
@@ -4506,34 +4506,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.385938321513</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="C5" t="n">
-        <v>1387.385938321513</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="D5" t="n">
-        <v>1387.385938321513</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="E5" t="n">
-        <v>1001.597685723269</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>340.6245090577513</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533136</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733122</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1773.985778385635</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1773.985778385635</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641986</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598705</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942405</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>402.6523129118474</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>255.762365413937</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>255.762365413937</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2323.103882821189</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>649.5437640718976</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>291.2780654651471</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>291.2780654651471</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2654.16677016476</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2323.103882821189</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2323.103882821189</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.103882821189</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>2323.103882821189</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064346</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064346</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240414</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038043</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.669719097632</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1095.404020490881</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>709.615767892637</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>298.6298631030294</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339057</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077977</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102165</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927783</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1822.632236038043</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1453.669719097632</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1095.404020490881</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>709.615767892637</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>298.6298631030294</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>298.6298631030294</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>2972.837166339057</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>2599.371408077977</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2209.232076102165</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>528.0379765536123</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>359.1017936257055</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>208.9851542133697</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>208.9851542133697</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>208.9851542133697</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>709.6864413838521</v>
       </c>
     </row>
     <row r="17">
@@ -5515,34 +5515,34 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>888.4135721382786</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1339.447785386687</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2317.998088216516</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>3297.750360443163</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>401.9038525862967</v>
+        <v>691.980755747597</v>
       </c>
       <c r="C19" t="n">
-        <v>242.4509819463048</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5703,22 +5703,22 @@
         <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431758</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557401</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.959038351514</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W19" t="n">
-        <v>811.5418683145538</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X19" t="n">
-        <v>583.5523174165364</v>
+        <v>1094.421799721367</v>
       </c>
       <c r="Y19" t="n">
-        <v>583.5523174165364</v>
+        <v>873.6292205778367</v>
       </c>
     </row>
     <row r="20">
@@ -5758,28 +5758,28 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5834,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>749.8045919840864</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>580.8684090561795</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>430.7517696438438</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>282.8386760614507</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.556111024461</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.1389409875</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X22" t="n">
-        <v>1123.1389409875</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="Y22" t="n">
-        <v>1123.1389409875</v>
+        <v>931.4530568143261</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001584</v>
@@ -6019,22 +6019,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.57685067423</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V25" t="n">
-        <v>1734.57685067423</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W25" t="n">
-        <v>1734.57685067423</v>
+        <v>1341.455177601548</v>
       </c>
       <c r="X25" t="n">
-        <v>1506.587299776212</v>
+        <v>1341.455177601548</v>
       </c>
       <c r="Y25" t="n">
-        <v>1302.311063288258</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6244,34 +6244,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>412.4103109586945</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C28" t="n">
-        <v>243.4741280307875</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>524.2401715336166</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>376.3270779512235</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>229.4371304533131</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1887.056886577564</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1695.37100240439</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1473.604386973916</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1184.501520099559</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>929.8170318936725</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W28" t="n">
-        <v>640.3998618567118</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>412.4103109586945</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y28" t="n">
-        <v>412.4103109586945</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6469,13 +6469,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468568</v>
@@ -6542,19 +6542,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.1567207524339</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C31" t="n">
-        <v>489.220537824527</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="D31" t="n">
-        <v>339.1038984121913</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="E31" t="n">
-        <v>339.1038984121913</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>305.7002480175677</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>137.9974113922866</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6651,22 +6651,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1832.688973867069</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1578.004485661182</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>1288.587315624221</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>1060.597764726204</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>839.8051855826736</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6770,13 +6770,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3065.182384345805</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>3065.182384345805</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>3065.182384345805</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.768765573601</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699244</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493358</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>3441.564240456397</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>3213.57468955838</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>3065.182384345805</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6916,22 +6916,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
@@ -6940,16 +6940,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789527</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3233.095421189229</v>
+        <v>727.0030950818858</v>
       </c>
       <c r="C37" t="n">
-        <v>3064.159238261322</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D37" t="n">
-        <v>3064.159238261322</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>3064.159238261322</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4663.812668402808</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>4442.046052972333</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>4152.943186097977</v>
+        <v>1719.886883366281</v>
       </c>
       <c r="V37" t="n">
-        <v>4152.943186097977</v>
+        <v>1465.202395160394</v>
       </c>
       <c r="W37" t="n">
-        <v>3863.526016061016</v>
+        <v>1175.785225123433</v>
       </c>
       <c r="X37" t="n">
-        <v>3635.536465162999</v>
+        <v>947.795674225416</v>
       </c>
       <c r="Y37" t="n">
-        <v>3414.743886019469</v>
+        <v>727.0030950818858</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7201,22 +7201,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y38" t="n">
         <v>2760.816196754296</v>
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458018</v>
+        <v>747.3928343215996</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>578.4566513936927</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>428.340011981357</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>280.4269183989638</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>133.5369709010535</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839441</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1866.513008862232</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>1866.513008862232</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W40" t="n">
-        <v>1751.093193329805</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X40" t="n">
-        <v>1523.103642431788</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y40" t="n">
-        <v>1302.311063288258</v>
+        <v>929.0412991518393</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,67 +7396,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.336921276364</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C43" t="n">
-        <v>854.4007383484569</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361212</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7599,22 +7599,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1804.136144913865</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1515.033278039509</v>
       </c>
       <c r="V43" t="n">
-        <v>1445.473983799873</v>
+        <v>1260.348789833622</v>
       </c>
       <c r="W43" t="n">
-        <v>1445.473983799873</v>
+        <v>970.9316197966614</v>
       </c>
       <c r="X43" t="n">
-        <v>1425.777965250134</v>
+        <v>742.942068898644</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.985386106604</v>
+        <v>742.942068898644</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
@@ -7654,16 +7654,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1364.144379432264</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>1897.676284104189</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330835</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
         <v>4470.748294107236</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.662598458018</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C46" t="n">
-        <v>951.7264155301116</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D46" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E46" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7839,19 +7839,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1956.343466104704</v>
+        <v>1732.599165268614</v>
       </c>
       <c r="V46" t="n">
-        <v>1701.658977898817</v>
+        <v>1477.914677062727</v>
       </c>
       <c r="W46" t="n">
-        <v>1701.658977898817</v>
+        <v>1188.497507025766</v>
       </c>
       <c r="X46" t="n">
-        <v>1523.103642431788</v>
+        <v>960.5079561277488</v>
       </c>
       <c r="Y46" t="n">
-        <v>1302.311063288258</v>
+        <v>739.7153769842187</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719074</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>248.8400772687159</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>103.7862464855144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10360,10 +10360,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>246.454569480844</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.359690138258429e-12</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,10 +11302,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>297.8289162490797</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -22558,13 +22558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>104.2953198758698</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22603,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>148.869998841071</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>34.4133751434926</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22956,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.56965827269525</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,25 +22992,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>208.6716698633608</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>82.85718120047531</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23202,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>181.1251564493159</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>35.67378197783296</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>64.81119518318289</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>53.73592969170268</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>9.388479165035847</v>
+        <v>113.6142011099683</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.3804010777507</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>126.0419910850338</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24423,16 +24423,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>238.4023379885117</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.35117922902006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>33.48847321415869</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.33843893817848</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>102.7430017398675</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>163.7938908903541</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.67627119164587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>76.67236185469839</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>52.11982129457425</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>128.4296311708957</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25605,13 +25605,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25839,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>68.86370129723915</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>206.2105970247949</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>64.70498037788366</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>48.93987327667872</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755971.630784931</v>
+        <v>1047255.490584253</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755971.630784931</v>
+        <v>1047255.490584253</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755971.630784931</v>
+        <v>1047255.490584253</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822662.6452852964</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822662.6452852964</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>977294.0982740737</v>
+        <v>977294.0982740736</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>977294.0982740737</v>
+        <v>977294.0982740738</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>977294.0982740737</v>
+        <v>977294.0982740738</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>375096.8088680127</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="F2" t="n">
-        <v>375096.8088680127</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="G2" t="n">
+        <v>436789.9655756817</v>
+      </c>
+      <c r="H2" t="n">
+        <v>436789.9655756817</v>
+      </c>
+      <c r="I2" t="n">
         <v>436789.9655756816</v>
-      </c>
-      <c r="H2" t="n">
-        <v>436789.9655756816</v>
-      </c>
-      <c r="I2" t="n">
-        <v>436789.9655756815</v>
       </c>
       <c r="J2" t="n">
         <v>436789.9655756816</v>
       </c>
       <c r="K2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="L2" t="n">
+        <v>436789.9655756817</v>
+      </c>
+      <c r="M2" t="n">
         <v>436789.9655756816</v>
       </c>
-      <c r="L2" t="n">
-        <v>436789.9655756815</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>436789.9655756817</v>
-      </c>
-      <c r="N2" t="n">
-        <v>436789.9655756815</v>
       </c>
       <c r="O2" t="n">
         <v>436789.9655756815</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503536</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091492</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254644</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>87383.13961898998</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62518.47524617217</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>62518.47524617215</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>62518.47524617217</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="J4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="N4" t="n">
         <v>25090.72367499381</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26493,13 +26493,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26508,7 +26508,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-417277.561506793</v>
+        <v>-422318.4897803294</v>
       </c>
       <c r="C6" t="n">
-        <v>172690.3177077518</v>
+        <v>167649.3894342149</v>
       </c>
       <c r="D6" t="n">
-        <v>172690.3177077517</v>
+        <v>167649.3894342149</v>
       </c>
       <c r="E6" t="n">
-        <v>-323060.6990257273</v>
+        <v>-412733.6452486905</v>
       </c>
       <c r="F6" t="n">
-        <v>295899.6169246265</v>
+        <v>314643.7687447161</v>
       </c>
       <c r="G6" t="n">
-        <v>215792.3149660592</v>
+        <v>314643.7687447162</v>
       </c>
       <c r="H6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447162</v>
       </c>
       <c r="I6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447162</v>
       </c>
       <c r="J6" t="n">
-        <v>138892.5044543811</v>
+        <v>138220.5495521233</v>
       </c>
       <c r="K6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447161</v>
       </c>
       <c r="L6" t="n">
-        <v>315315.723646974</v>
+        <v>314643.7687447162</v>
       </c>
       <c r="M6" t="n">
-        <v>276162.2408744278</v>
+        <v>185001.4539057715</v>
       </c>
       <c r="N6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447162</v>
       </c>
       <c r="O6" t="n">
-        <v>227932.5840279841</v>
+        <v>314643.7687447161</v>
       </c>
       <c r="P6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447161</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.114182647737</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026375</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477368</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026377</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.114182647737</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026375</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>111.3076844110286</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>136.7057146380965</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>129.9694580557821</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>185.6984829541717</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -31047,7 +31047,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31056,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,40 +31120,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31162,7 +31162,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32332,7 +32332,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32560,7 +32560,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -33508,7 +33508,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34447,10 +34447,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181305</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624587</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>647.6020634880878</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35664,13 +35664,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>440.9775330409149</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36208,7 +36208,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36837,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37071,7 +37071,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
@@ -37080,10 +37080,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937555</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37156,7 +37156,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38022,10 +38022,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>753.4190306414118</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
@@ -38034,7 +38034,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1066838.358788885</v>
+        <v>1085237.625530165</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>7226289.925414165</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095099</v>
+        <v>3187716.885615896</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11502486.99834478</v>
+        <v>10392167.78907094</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>68.90297685032048</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>237.9332843063845</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>30.54110646053131</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>56.88196987815829</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>283.8147119650129</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>273.7499132364427</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>9.22084658737597</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>221.1775627875398</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.123481276658028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>241.5917322886765</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>112.9416910403794</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>59.9032091929889</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>259.7463664567914</v>
       </c>
     </row>
     <row r="15">
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>112.2898785673255</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>153.879672974211</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>146.7008107263316</v>
       </c>
       <c r="C19" t="n">
-        <v>53.63261998865958</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>19.37905693789747</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>233.4396776561408</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>99.1393175095014</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>48.12066034807928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>132.5373350448695</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="29">
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>131.5730391207948</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>42.01201317445329</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>36.41670903610036</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>63.72703424640802</v>
       </c>
       <c r="U37" t="n">
-        <v>234.0920169110386</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>37.59617708813248</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>58.93891326891428</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
-        <v>150.6852479789301</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>112.9416910403794</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>221.5068578277292</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D2" t="n">
         <v>1422.14692331494</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1422.14692331494</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.14692331494</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,19 +4415,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>670.6724489759715</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>751.6104138473588</v>
+        <v>1159.40775858698</v>
       </c>
       <c r="C5" t="n">
-        <v>751.6104138473588</v>
+        <v>1159.40775858698</v>
       </c>
       <c r="D5" t="n">
-        <v>751.6104138473588</v>
+        <v>1159.40775858698</v>
       </c>
       <c r="E5" t="n">
-        <v>751.6104138473588</v>
+        <v>1159.40775858698</v>
       </c>
       <c r="F5" t="n">
-        <v>340.6245090577513</v>
+        <v>748.4218537973723</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>330.4580456955591</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887292</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y5" t="n">
-        <v>1138.210253911481</v>
+        <v>1546.007598651101</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.506281012309</v>
+        <v>1271.835978902613</v>
       </c>
       <c r="C8" t="n">
-        <v>649.5437640718976</v>
+        <v>1271.835978902613</v>
       </c>
       <c r="D8" t="n">
-        <v>291.2780654651471</v>
+        <v>1271.835978902613</v>
       </c>
       <c r="E8" t="n">
-        <v>291.2780654651471</v>
+        <v>886.047726304369</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>475.0618215147614</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>57.09801341294832</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>57.09801341294832</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.506281012309</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2504.619866888352</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>3051.398683947134</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3554.371154826471</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>2033.921080979572</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>673.3827746590082</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C13" t="n">
-        <v>504.4465917311013</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1866.786255974363</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1577.683389100006</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>1322.998900894119</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>1033.581730857159</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590082</v>
+        <v>805.5921799591413</v>
       </c>
       <c r="Y13" t="n">
-        <v>673.3827746590082</v>
+        <v>584.7996008156111</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622688</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>528.0379765536123</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1017936257055</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D16" t="n">
-        <v>208.9851542133697</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>208.9851542133697</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>208.9851542133697</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X16" t="n">
-        <v>709.6864413838521</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y16" t="n">
-        <v>709.6864413838521</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,13 +5500,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5518,16 +5518,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
@@ -5542,7 +5542,7 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5594,10 +5594,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>691.980755747597</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C19" t="n">
-        <v>637.8063921226883</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D19" t="n">
-        <v>487.6897527103525</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>339.7766591279594</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1866.513008862232</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1611.828520656345</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1322.411350619384</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>1094.421799721367</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y19" t="n">
-        <v>873.6292205778367</v>
+        <v>709.6864413838521</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5767,19 +5767,19 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>749.8045919840864</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8684090561795</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>430.7517696438438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>282.8386760614507</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057174</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V22" t="n">
-        <v>1220.870226851287</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W22" t="n">
-        <v>931.4530568143261</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X22" t="n">
-        <v>931.4530568143261</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y22" t="n">
-        <v>931.4530568143261</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.662598458018</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1856.202741347632</v>
       </c>
       <c r="U25" t="n">
-        <v>1644.746393431758</v>
+        <v>1567.099874473275</v>
       </c>
       <c r="V25" t="n">
-        <v>1390.061905225871</v>
+        <v>1312.415386267388</v>
       </c>
       <c r="W25" t="n">
-        <v>1341.455177601548</v>
+        <v>1022.998216230428</v>
       </c>
       <c r="X25" t="n">
-        <v>1341.455177601548</v>
+        <v>795.0086653324104</v>
       </c>
       <c r="Y25" t="n">
-        <v>1120.662598458018</v>
+        <v>574.2160861888802</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143013</v>
@@ -6214,13 +6214,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6229,19 +6229,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107236</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.3568109459524</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>674.3568109459524</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>524.2401715336166</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>376.3270779512235</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>229.4371304533131</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.3568109459524</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>452.5901955154781</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C31" t="n">
-        <v>452.5901955154781</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
-        <v>452.5901955154781</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>452.5901955154781</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>305.7002480175677</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>137.9974113922866</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6666,7 +6666,7 @@
         <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.5901955154781</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6703,16 +6703,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2782.232616025903</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870721</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6727,22 +6727,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
         <v>2760.816196754296</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839441</v>
@@ -6903,7 +6903,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="35">
@@ -6916,25 +6916,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6943,25 +6943,25 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320243</v>
@@ -7034,16 +7034,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.0030950818858</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>558.0669121539789</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
         <v>558.0669121539789</v>
@@ -7086,13 +7086,13 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7125,22 +7125,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1891.972724441665</v>
       </c>
       <c r="U37" t="n">
-        <v>1719.886883366281</v>
+        <v>1602.869857567309</v>
       </c>
       <c r="V37" t="n">
-        <v>1465.202395160394</v>
+        <v>1348.185369361422</v>
       </c>
       <c r="W37" t="n">
-        <v>1175.785225123433</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="X37" t="n">
-        <v>947.795674225416</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="Y37" t="n">
-        <v>727.0030950818858</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839441</v>
@@ -7201,22 +7201,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
         <v>2760.816196754296</v>
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>747.3928343215996</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C40" t="n">
-        <v>578.4566513936927</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>428.340011981357</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>280.4269183989638</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>133.5369709010535</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839441</v>
@@ -7362,22 +7362,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1667.240599230347</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>1377.823429193387</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>1149.833878295369</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y40" t="n">
-        <v>929.0412991518393</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839441</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1804.136144913865</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1515.033278039509</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.348789833622</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>970.9316197966614</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>742.942068898644</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.942068898644</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193956</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420603</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
@@ -7730,10 +7730,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>558.0669121539789</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0669121539789</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="D46" t="n">
-        <v>558.0669121539789</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="E46" t="n">
-        <v>410.1538185715858</v>
+        <v>356.5334981487082</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>209.6435506507978</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839441</v>
@@ -7836,22 +7836,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1732.599165268614</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.914677062727</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>1188.497507025766</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>960.5079561277488</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>739.7153769842187</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>248.8400772687159</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>258.621178561693</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>315.167921710931</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10114,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>295.4822118493972</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10360,10 +10360,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>246.454569480844</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>258.6211785616922</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>285.7800647703625</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22603,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22707,28 +22707,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.78322210199954</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>50.17285952791445</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22846,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>216.4888088016612</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>148.8078349682032</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>128.1393683897925</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>35.67378197783296</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23469,7 +23469,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>159.6457400831803</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>126.4915721992622</v>
       </c>
     </row>
     <row r="15">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>53.73592969170268</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23703,10 +23703,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>64.70498037788383</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>33.13116945560569</v>
       </c>
       <c r="C19" t="n">
-        <v>113.6142011099683</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>126.0419910850338</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>52.77216054947209</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>120.4096317666678</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>238.4023379885117</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>33.48847321415869</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="29">
@@ -24840,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>35.67378197783302</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>102.7430017398675</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>109.0043389868309</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>155.8219150297612</v>
       </c>
       <c r="U37" t="n">
-        <v>52.11982129457425</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>128.4296311708957</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25602,13 +25602,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>159.6457400831805</v>
       </c>
     </row>
     <row r="41">
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
-        <v>68.86370129723915</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>53.08411721864884</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>64.70498037788366</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1047255.490584253</v>
+        <v>755971.6307849309</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1047255.490584253</v>
+        <v>755971.6307849309</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1047255.490584253</v>
+        <v>755971.6307849309</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>977294.0982740737</v>
+        <v>822662.6452852961</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>977294.0982740737</v>
+        <v>822662.6452852961</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>977294.0982740737</v>
+        <v>977294.0982740736</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253561</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
+        <v>375096.8088680127</v>
+      </c>
+      <c r="F2" t="n">
+        <v>375096.8088680127</v>
+      </c>
+      <c r="G2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="H2" t="n">
         <v>436789.9655756816</v>
-      </c>
-      <c r="F2" t="n">
-        <v>436789.9655756815</v>
-      </c>
-      <c r="G2" t="n">
-        <v>436789.9655756817</v>
-      </c>
-      <c r="H2" t="n">
-        <v>436789.9655756817</v>
       </c>
       <c r="I2" t="n">
         <v>436789.9655756816</v>
@@ -26340,22 +26340,22 @@
         <v>436789.9655756816</v>
       </c>
       <c r="K2" t="n">
+        <v>436789.9655756816</v>
+      </c>
+      <c r="L2" t="n">
         <v>436789.9655756815</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="N2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="O2" t="n">
+        <v>436789.9655756816</v>
+      </c>
+      <c r="P2" t="n">
         <v>436789.9655756817</v>
-      </c>
-      <c r="M2" t="n">
-        <v>436789.9655756816</v>
-      </c>
-      <c r="N2" t="n">
-        <v>436789.9655756817</v>
-      </c>
-      <c r="O2" t="n">
-        <v>436789.9655756815</v>
-      </c>
-      <c r="P2" t="n">
-        <v>436789.9655756815</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>618960.3159503535</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>99523.40868091492</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>39153.48277254675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>87383.13961898992</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277315</v>
+        <v>62518.47524617217</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>62518.47524617217</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>62518.47524617217</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499381</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="P4" t="n">
         <v>25090.72367499381</v>
@@ -26478,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422318.4897803294</v>
+        <v>-417884.4028813746</v>
       </c>
       <c r="C6" t="n">
-        <v>167649.3894342149</v>
+        <v>172083.4763331699</v>
       </c>
       <c r="D6" t="n">
-        <v>167649.3894342149</v>
+        <v>172083.4763331698</v>
       </c>
       <c r="E6" t="n">
-        <v>-412733.6452486905</v>
+        <v>-323408.3179555332</v>
       </c>
       <c r="F6" t="n">
-        <v>314643.7687447161</v>
+        <v>295551.9979948202</v>
       </c>
       <c r="G6" t="n">
-        <v>314643.7687447162</v>
+        <v>215725.1194758333</v>
       </c>
       <c r="H6" t="n">
-        <v>314643.7687447162</v>
+        <v>315248.5281567484</v>
       </c>
       <c r="I6" t="n">
-        <v>314643.7687447162</v>
+        <v>315248.5281567484</v>
       </c>
       <c r="J6" t="n">
-        <v>138220.5495521233</v>
+        <v>138825.3089641554</v>
       </c>
       <c r="K6" t="n">
-        <v>314643.7687447161</v>
+        <v>315248.5281567484</v>
       </c>
       <c r="L6" t="n">
-        <v>314643.7687447162</v>
+        <v>315248.5281567483</v>
       </c>
       <c r="M6" t="n">
-        <v>185001.4539057715</v>
+        <v>276095.0453842015</v>
       </c>
       <c r="N6" t="n">
-        <v>314643.7687447162</v>
+        <v>315248.5281567483</v>
       </c>
       <c r="O6" t="n">
-        <v>314643.7687447161</v>
+        <v>227865.3885377584</v>
       </c>
       <c r="P6" t="n">
-        <v>314643.7687447161</v>
+        <v>315248.5281567484</v>
       </c>
     </row>
   </sheetData>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>157.1141826477374</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>111.3076844110286</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>136.7057146380965</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>129.9694580557821</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>96.50703242634987</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>185.6984829541717</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32332,7 +32332,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34228,10 +34228,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35427,13 +35427,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>647.6020634880878</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35664,13 +35664,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35886,19 +35886,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>766.6741794499121</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35980,7 +35980,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>713.9299079303029</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>751.0723262417293</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
@@ -37071,7 +37071,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
@@ -37080,10 +37080,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>798.7564048937555</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>797.542294391919</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
